--- a/ndscheduler/mylib/软件启动信息.xlsx
+++ b/ndscheduler/mylib/软件启动信息.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,34 +55,10 @@
     <t>C:/Program Files (x86)/Microsoft Office/Office15/excel.exe</t>
   </si>
   <si>
-    <t>cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>start_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>notepad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记事本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>caption</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,62 +70,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>need_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>f:/test.xlsx /x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:/softwares/hsclient/HsOrganClient.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_caption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>f:/test.xlsx /x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:/softwares/hsclient/HsOrganClient.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_caption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资产管理综合业务平台</t>
   </si>
   <si>
-    <t>这是一个cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/k python F:/source_files/quant/fundamental_research/test/test.py &amp;&amp; exit</t>
+    <t>-multi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,11 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -535,31 +488,34 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="9" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
@@ -585,22 +541,22 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>1500</v>
@@ -623,25 +579,28 @@
         <v>0.375</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -653,7 +612,7 @@
         <v>400</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -661,183 +620,67 @@
         <v>0.375</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>30</v>
+        <v>1600</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>40</v>
-      </c>
-      <c r="J5">
-        <v>40</v>
-      </c>
-      <c r="K5">
-        <v>250</v>
-      </c>
-      <c r="L5">
-        <v>250</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6">
-        <v>1400</v>
-      </c>
-      <c r="J6">
-        <v>80</v>
-      </c>
-      <c r="K6">
-        <v>400</v>
-      </c>
-      <c r="L6">
-        <v>400</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7">
-        <v>1500</v>
-      </c>
-      <c r="J7">
-        <v>80</v>
-      </c>
-      <c r="K7">
-        <v>400</v>
-      </c>
-      <c r="L7">
-        <v>400</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8">
-        <v>1400</v>
-      </c>
-      <c r="J8">
-        <v>80</v>
-      </c>
-      <c r="K8">
-        <v>400</v>
-      </c>
-      <c r="L8">
-        <v>400</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
